--- a/Projeto Traders/Projeto Algoritmos/Algoritmo Operações.xlsx
+++ b/Projeto Traders/Projeto Algoritmos/Algoritmo Operações.xlsx
@@ -1,48 +1,514 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Usuário" sheetId="1" r:id="rId1"/>
+    <sheet name="OperacoesDayTrade" sheetId="2" r:id="rId2"/>
+    <sheet name="RentabilidadeRendaVariavel" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Sobrenome</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>cod_nota</t>
+  </si>
+  <si>
+    <t>data_pregao</t>
+  </si>
+  <si>
+    <t>cod_corretora</t>
+  </si>
+  <si>
+    <t>cod_ativo</t>
+  </si>
+  <si>
+    <t>quantidade_volume</t>
+  </si>
+  <si>
+    <t>ajuste</t>
+  </si>
+  <si>
+    <t>total_taxas</t>
+  </si>
+  <si>
+    <t>irrf</t>
+  </si>
+  <si>
+    <t>iss</t>
+  </si>
+  <si>
+    <t>total_nota</t>
+  </si>
+  <si>
+    <t>total_liquido_nota</t>
+  </si>
+  <si>
+    <t>WDO</t>
+  </si>
+  <si>
+    <t>13/06/2018</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>14/06/2018</t>
+  </si>
+  <si>
+    <t>15/06/2018</t>
+  </si>
+  <si>
+    <t>18/06/2018</t>
+  </si>
+  <si>
+    <t>21/06/2018</t>
+  </si>
+  <si>
+    <t>22/06/2018</t>
+  </si>
+  <si>
+    <t>26/06/2018</t>
+  </si>
+  <si>
+    <t>27/06/2018</t>
+  </si>
+  <si>
+    <t>operacao</t>
+  </si>
+  <si>
+    <t>mes_referencia</t>
+  </si>
+  <si>
+    <t>ano_referencia</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>resultado_liquido</t>
+  </si>
+  <si>
+    <t>irrf_daytrade</t>
+  </si>
+  <si>
+    <t>DayTrade</t>
+  </si>
+  <si>
+    <t>FUTUROS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,24 +516,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +886,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +921,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +1095,504 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="18.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.14285714285714" style="1"/>
+    <col min="10" max="10" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="4">
+        <v>43440</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="1">
+        <f>F2-G2-I2</f>
+        <v>-1.11</v>
+      </c>
+      <c r="K2" s="1">
+        <f>F2-(G2+H2+I2)</f>
+        <v>-1.11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J10" si="0">F3-G3-I3</f>
+        <v>10.8</v>
+      </c>
+      <c r="K3" s="1">
+        <f>F3-(G3+H3+I3)</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>9.55</v>
+      </c>
+      <c r="K4" s="1">
+        <f>F4-(G4+H4+I4)</f>
+        <v>9.46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.31</v>
+      </c>
+      <c r="K5" s="1">
+        <f>F5-(G5+H5+I5)</f>
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>22.8</v>
+      </c>
+      <c r="K6" s="1">
+        <f>F6-(G6+H6+I6)</f>
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.09</v>
+      </c>
+      <c r="K7" s="1">
+        <f>F7-(G7+H7+I7)</f>
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.35</v>
+      </c>
+      <c r="K8" s="1">
+        <f>F8-(G8+H8+I8)</f>
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>15.72</v>
+      </c>
+      <c r="K9" s="1">
+        <f>F9-(G9+H9+I9)</f>
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>-63.84</v>
+      </c>
+      <c r="K10" s="1">
+        <f>F10-(G10+H10+I10)</f>
+        <v>-63.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1">
+        <f>OperacoesDayTrade!J2</f>
+        <v>-1.11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM(OperacoesDayTrade!J3:J10)</f>
+        <v>8.16000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUM(OperacoesDayTrade!H3:H10)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Projeto Traders/Projeto Algoritmos/Algoritmo Operações.xlsx
+++ b/Projeto Traders/Projeto Algoritmos/Algoritmo Operações.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Usuário" sheetId="1" r:id="rId1"/>
     <sheet name="OperacoesDayTrade" sheetId="2" r:id="rId2"/>
     <sheet name="RentabilidadeRendaVariavel" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>username</t>
   </si>
@@ -51,6 +52,9 @@
     <t>cod_ativo</t>
   </si>
   <si>
+    <t>Tx Operacional</t>
+  </si>
+  <si>
     <t>quantidade_volume</t>
   </si>
   <si>
@@ -72,6 +76,9 @@
     <t>total_liquido_nota</t>
   </si>
   <si>
+    <t>Corretagem</t>
+  </si>
+  <si>
     <t>WDO</t>
   </si>
   <si>
@@ -102,6 +109,21 @@
     <t>27/06/2018</t>
   </si>
   <si>
+    <t>13/07/2018</t>
+  </si>
+  <si>
+    <t>16/07/2018</t>
+  </si>
+  <si>
+    <t>17/07/2018</t>
+  </si>
+  <si>
+    <t>18/07/2018</t>
+  </si>
+  <si>
+    <t>19/07/2018</t>
+  </si>
+  <si>
     <t>operacao</t>
   </si>
   <si>
@@ -124,6 +146,18 @@
   </si>
   <si>
     <t>FUTUROS</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>Mês Referencia</t>
+  </si>
+  <si>
+    <t>Ano Referencia</t>
+  </si>
+  <si>
+    <t>Resultado Liquido</t>
   </si>
 </sst>
 </file>
@@ -131,15 +165,29 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,37 +200,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +222,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,8 +243,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,16 +274,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +291,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,24 +349,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,25 +365,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,19 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,37 +455,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,31 +551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,11 +579,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +597,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,30 +643,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -593,8 +651,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -623,146 +683,146 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,16 +830,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,12 +1246,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1167,16 +1260,18 @@
     <col min="2" max="2" width="16.1428571428571" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.2857142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.4285714285714" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4285714285714" style="1" customWidth="1"/>
-    <col min="8" max="9" width="9.14285714285714" style="1"/>
-    <col min="10" max="10" width="11.8571428571429" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="15.2857142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5714285714286" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.14285714285714" style="1"/>
+    <col min="11" max="11" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.2857142857143" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1189,10 +1284,10 @@
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1204,290 +1299,2457 @@
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="4">
+      <c r="L1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="2:13">
+      <c r="B2" s="10">
         <v>43440</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>1.1</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
         <v>0.01</v>
       </c>
-      <c r="J2" s="1">
-        <f>F2-G2-I2</f>
+      <c r="K2" s="3">
+        <f>G2-H2-J2</f>
         <v>-1.11</v>
       </c>
-      <c r="K2" s="1">
-        <f>F2-(G2+H2+I2)</f>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L10" si="0">G2-(H2+I2+J2)</f>
         <v>-1.11</v>
       </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="M2" s="3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="2:12">
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="4">
         <v>14</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="4">
         <v>3.08</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="4">
         <v>0.1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="4">
         <v>0.12</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J10" si="0">F3-G3-I3</f>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K10" si="1">G3-H3-J3</f>
         <v>10.8</v>
       </c>
-      <c r="K3" s="1">
-        <f>F3-(G3+H3+I3)</f>
+      <c r="L3" s="4">
+        <f t="shared" si="0"/>
         <v>10.7</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1">
+    <row r="4" s="4" customFormat="1" spans="2:12">
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="4">
         <v>0.44</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="4">
         <v>0.09</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="4">
         <v>0.01</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>9.55</v>
+      </c>
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>9.55</v>
-      </c>
-      <c r="K4" s="1">
-        <f>F4-(G4+H4+I4)</f>
         <v>9.46</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="1" t="s">
+    <row r="5" s="4" customFormat="1" spans="2:12">
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="F5" s="4">
         <v>32</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="4">
         <v>6</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="4">
         <v>7.04</v>
       </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>0.27</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.31</v>
+      </c>
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>-1.31</v>
       </c>
-      <c r="K5" s="1">
-        <f>F5-(G5+H5+I5)</f>
-        <v>-1.31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
+    </row>
+    <row r="6" s="4" customFormat="1" spans="2:12">
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4">
         <v>14</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="4">
         <v>26</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="4">
         <v>3.08</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="4">
         <v>0.22</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="4">
         <v>0.12</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>22.8</v>
+      </c>
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>22.8</v>
-      </c>
-      <c r="K6" s="1">
-        <f>F6-(G6+H6+I6)</f>
         <v>22.58</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
+    <row r="7" s="4" customFormat="1" spans="2:12">
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="4">
         <v>9</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="4">
         <v>0.88</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="4">
         <v>0.08</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="4">
         <v>0.03</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>8.09</v>
+      </c>
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>8.09</v>
-      </c>
-      <c r="K7" s="1">
-        <f>F7-(G7+H7+I7)</f>
         <v>8.01</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
+    <row r="8" s="4" customFormat="1" spans="2:12">
+      <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4">
         <v>16</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="4">
         <v>10</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="4">
         <v>3.52</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="4">
         <v>0.06</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="4">
         <v>0.13</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.35</v>
+      </c>
+      <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>6.35</v>
-      </c>
-      <c r="K8" s="1">
-        <f>F8-(G8+H8+I8)</f>
         <v>6.29</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
+    <row r="9" s="4" customFormat="1" spans="2:12">
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="4">
         <v>18</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="4">
         <v>2.2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="4">
         <v>0.15</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="4">
         <v>0.08</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>15.72</v>
+      </c>
+      <c r="L9" s="4">
         <f t="shared" si="0"/>
-        <v>15.72</v>
-      </c>
-      <c r="K9" s="1">
-        <f>F9-(G9+H9+I9)</f>
         <v>15.57</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1">
+    <row r="10" s="4" customFormat="1" spans="2:12">
+      <c r="B10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4">
         <v>18</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="4">
         <v>-60</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="4">
         <v>3.69</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>0.15</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>-63.84</v>
+      </c>
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
         <v>-63.84</v>
       </c>
-      <c r="K10" s="1">
-        <f>F10-(G10+H10+I10)</f>
-        <v>-63.84</v>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="2:12">
+      <c r="B11" s="13">
+        <v>43166</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5">
+        <v>18</v>
+      </c>
+      <c r="G11" s="5">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.96</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" ref="K11:K42" si="2">G11-H11-J11</f>
+        <v>8.89</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" ref="L11:L42" si="3">G11-(H11+I11+J11)</f>
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="12" s="5" customFormat="1" spans="2:12">
+      <c r="B12" s="13">
+        <v>43227</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.07</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="2"/>
+        <v>7.09</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="3"/>
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" spans="2:12">
+      <c r="B13" s="13">
+        <v>43258</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>18</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2.2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="2"/>
+        <v>15.72</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="2:12">
+      <c r="B14" s="13">
+        <v>43380</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F14" s="5">
+        <f>E14/$M$2</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <v>9</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2.2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
+        <v>6.72</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="3"/>
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="2:12">
+      <c r="B15" s="13">
+        <v>43441</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F46" si="4">E15/$M$2</f>
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="2"/>
+        <v>4.18</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="3"/>
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="16" s="6" customFormat="1" spans="2:12">
+      <c r="B16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-85</v>
+      </c>
+      <c r="H16" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>-90.78</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="3"/>
+        <v>-90.78</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="2:12">
+      <c r="B17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="5">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
+        <v>4.09</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" spans="2:12">
+      <c r="B18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
+        <v>8.18</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="3"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" spans="2:12">
+      <c r="B19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4.68</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="G19" s="5">
+        <v>22</v>
+      </c>
+      <c r="H19" s="5">
+        <v>11.44</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="2"/>
+        <v>10.11</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="3"/>
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="1" spans="2:12">
+      <c r="B20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3.24</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G20" s="7">
+        <v>23</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7.92</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="2"/>
+        <v>14.76</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="3"/>
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12">
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12">
+      <c r="F22" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12">
+      <c r="F23" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12">
+      <c r="F24" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12">
+      <c r="F25" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12">
+      <c r="F26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12">
+      <c r="F27" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12">
+      <c r="F28" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12">
+      <c r="F29" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12">
+      <c r="F30" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12">
+      <c r="F31" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12">
+      <c r="F32" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12">
+      <c r="F33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12">
+      <c r="F34" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12">
+      <c r="F35" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12">
+      <c r="F36" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12">
+      <c r="F37" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12">
+      <c r="F38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12">
+      <c r="F39" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12">
+      <c r="F40" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12">
+      <c r="F41" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12">
+      <c r="F42" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:12">
+      <c r="F43" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ref="K43:K74" si="5">G43-H43-J43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" ref="L43:L74" si="6">G43-(H43+I43+J43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12">
+      <c r="F44" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="6:12">
+      <c r="F45" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12">
+      <c r="F46" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="6:12">
+      <c r="F47" s="1">
+        <f t="shared" ref="F47:F78" si="7">E47/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12">
+      <c r="F48" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12">
+      <c r="F49" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12">
+      <c r="F50" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12">
+      <c r="F51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12">
+      <c r="F52" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12">
+      <c r="F53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12">
+      <c r="F54" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12">
+      <c r="F55" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:12">
+      <c r="F56" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12">
+      <c r="F57" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="6:12">
+      <c r="F58" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="6:12">
+      <c r="F59" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="6:12">
+      <c r="F60" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="6:12">
+      <c r="F61" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="6:12">
+      <c r="F62" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="6:12">
+      <c r="F63" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="6:12">
+      <c r="F64" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="6:12">
+      <c r="F65" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:12">
+      <c r="F66" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:12">
+      <c r="F67" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:12">
+      <c r="F68" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="6:12">
+      <c r="F69" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="6:12">
+      <c r="F70" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:12">
+      <c r="F71" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12">
+      <c r="F72" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="6:12">
+      <c r="F73" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:12">
+      <c r="F74" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="6:12">
+      <c r="F75" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" ref="K75:K106" si="8">G75-H75-J75</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" ref="L75:L106" si="9">G75-(H75+I75+J75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:12">
+      <c r="F76" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="6:12">
+      <c r="F77" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="6:12">
+      <c r="F78" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="6:12">
+      <c r="F79" s="1">
+        <f t="shared" ref="F79:F110" si="10">E79/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="6:12">
+      <c r="F80" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:12">
+      <c r="F81" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:12">
+      <c r="F82" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:12">
+      <c r="F83" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:12">
+      <c r="F84" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:12">
+      <c r="F85" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:12">
+      <c r="F86" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:12">
+      <c r="F87" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:12">
+      <c r="F88" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:12">
+      <c r="F89" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:12">
+      <c r="F90" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:12">
+      <c r="F91" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:12">
+      <c r="F92" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:12">
+      <c r="F93" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:12">
+      <c r="F94" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:12">
+      <c r="F95" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:12">
+      <c r="F96" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:12">
+      <c r="F97" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:12">
+      <c r="F98" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:12">
+      <c r="F99" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:12">
+      <c r="F100" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:12">
+      <c r="F101" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:12">
+      <c r="F102" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:12">
+      <c r="F103" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:12">
+      <c r="F104" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:12">
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:12">
+      <c r="F106" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:12">
+      <c r="F107" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <f t="shared" ref="K107:K138" si="11">G107-H107-J107</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" ref="L107:L138" si="12">G107-(H107+I107+J107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:12">
+      <c r="F108" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:12">
+      <c r="F109" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:12">
+      <c r="F110" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:12">
+      <c r="F111" s="1">
+        <f t="shared" ref="F111:F142" si="13">E111/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:12">
+      <c r="F112" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="6:12">
+      <c r="F113" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="6:12">
+      <c r="F114" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="6:12">
+      <c r="F115" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="6:12">
+      <c r="F116" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="6:12">
+      <c r="F117" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="6:12">
+      <c r="F118" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:12">
+      <c r="F119" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:12">
+      <c r="F120" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="6:12">
+      <c r="F121" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="6:12">
+      <c r="F122" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K122" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="6:12">
+      <c r="F123" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="6:12">
+      <c r="F124" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="6:12">
+      <c r="F125" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="6:12">
+      <c r="F126" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="6:12">
+      <c r="F127" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="6:12">
+      <c r="F128" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L128" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="6:12">
+      <c r="F129" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L129" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="6:12">
+      <c r="F130" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L130" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="6:12">
+      <c r="F131" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L131" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="6:12">
+      <c r="F132" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L132" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="6:12">
+      <c r="F133" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K133" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L133" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="6:12">
+      <c r="F134" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L134" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="6:12">
+      <c r="F135" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="6:12">
+      <c r="F136" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L136" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="6:12">
+      <c r="F137" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L137" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="6:12">
+      <c r="F138" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L138" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="6:12">
+      <c r="F139" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="1">
+        <f>G139-H139-J139</f>
+        <v>0</v>
+      </c>
+      <c r="L139" s="1">
+        <f>G139-(H139+I139+J139)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="6:12">
+      <c r="F140" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="1">
+        <f>G140-H140-J140</f>
+        <v>0</v>
+      </c>
+      <c r="L140" s="1">
+        <f>G140-(H140+I140+J140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="6:12">
+      <c r="F141" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="1">
+        <f>G141-H141-J141</f>
+        <v>0</v>
+      </c>
+      <c r="L141" s="1">
+        <f>G141-(H141+I141+J141)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="6:12">
+      <c r="F142" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="1">
+        <f>G142-H142-J142</f>
+        <v>0</v>
+      </c>
+      <c r="L142" s="1">
+        <f>G142-(H142+I142+J142)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="6:12">
+      <c r="F143" s="1">
+        <f>E143/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K143" s="1">
+        <f>G143-H143-J143</f>
+        <v>0</v>
+      </c>
+      <c r="L143" s="1">
+        <f>G143-(H143+I143+J143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="6:12">
+      <c r="F144" s="1">
+        <f>E144/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K144" s="1">
+        <f>G144-H144-J144</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="1">
+        <f>G144-(H144+I144+J144)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="6:12">
+      <c r="F145" s="1">
+        <f>E145/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
+        <f>G145-H145-J145</f>
+        <v>0</v>
+      </c>
+      <c r="L145" s="1">
+        <f>G145-(H145+I145+J145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="6:12">
+      <c r="F146" s="1">
+        <f>E146/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K146" s="1">
+        <f>G146-H146-J146</f>
+        <v>0</v>
+      </c>
+      <c r="L146" s="1">
+        <f>G146-(H146+I146+J146)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="6:12">
+      <c r="F147" s="1">
+        <f>E147/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <f>G147-H147-J147</f>
+        <v>0</v>
+      </c>
+      <c r="L147" s="1">
+        <f>G147-(H147+I147+J147)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="6:12">
+      <c r="F148" s="1">
+        <f>E148/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <f>G148-H148-J148</f>
+        <v>0</v>
+      </c>
+      <c r="L148" s="1">
+        <f>G148-(H148+I148+J148)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="6:12">
+      <c r="F149" s="1">
+        <f>E149/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K149" s="1">
+        <f>G149-H149-J149</f>
+        <v>0</v>
+      </c>
+      <c r="L149" s="1">
+        <f>G149-(H149+I149+J149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="6:12">
+      <c r="F150" s="1">
+        <f>E150/$M$2</f>
+        <v>0</v>
+      </c>
+      <c r="K150" s="1">
+        <f>G150-H150-J150</f>
+        <v>0</v>
+      </c>
+      <c r="L150" s="1">
+        <f>G150-(H150+I150+J150)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1499,15 +3761,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.1428571428571" style="1" customWidth="1"/>
@@ -1521,30 +3783,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
@@ -1553,13 +3815,13 @@
         <v>2018</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1">
-        <f>OperacoesDayTrade!J2</f>
+        <f>OperacoesDayTrade!K2</f>
         <v>-1.11</v>
       </c>
       <c r="G2" s="1">
@@ -1568,7 +3830,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -1577,18 +3839,136 @@
         <v>2018</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUM(OperacoesDayTrade!K3:K10)</f>
+        <v>8.16000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUM(OperacoesDayTrade!I3:I10)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1">
-        <f>SUM(OperacoesDayTrade!J3:J10)</f>
-        <v>8.16000000000002</v>
-      </c>
-      <c r="G3" s="1">
-        <f>SUM(OperacoesDayTrade!H3:H10)</f>
-        <v>0.7</v>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1">
+        <f>OperacoesDayTrade!L16</f>
+        <v>-90.78</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1">
+        <f>SUM(OperacoesDayTrade!L11:L15)+SUM(OperacoesDayTrade!L17:L20)</f>
+        <v>78.96</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUM(OperacoesDayTrade!I11:I15)+SUM(OperacoesDayTrade!I17:I20)</f>
+        <v>0.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="18.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2">
+        <f>RentabilidadeRendaVariavel!F2+RentabilidadeRendaVariavel!F3</f>
+        <v>7.05000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
+        <f>RentabilidadeRendaVariavel!F4+RentabilidadeRendaVariavel!F5</f>
+        <v>-11.82</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto Traders/Projeto Algoritmos/Algoritmo Operações.xlsx
+++ b/Projeto Traders/Projeto Algoritmos/Algoritmo Operações.xlsx
@@ -165,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -199,8 +199,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,14 +220,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -228,22 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -259,8 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,52 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,9 +328,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,7 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,13 +395,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,43 +527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,103 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,11 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,11 +607,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,17 +637,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,178 +659,170 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,22 +854,7 @@
     <xf numFmtId="58" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1251,7 +1236,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1305,7 +1290,7 @@
       <c r="K1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="12" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="8" t="s">
@@ -1316,7 +1301,7 @@
       <c r="B2" s="10">
         <v>43440</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3">
@@ -1347,10 +1332,10 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="1" spans="2:12">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="4">
@@ -1378,10 +1363,10 @@
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="2:12">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="4">
@@ -1409,10 +1394,10 @@
       </c>
     </row>
     <row r="5" s="4" customFormat="1" spans="2:12">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="4">
@@ -1440,10 +1425,10 @@
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="2:12">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="4">
@@ -1471,10 +1456,10 @@
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="2:12">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="4">
@@ -1502,10 +1487,10 @@
       </c>
     </row>
     <row r="8" s="4" customFormat="1" spans="2:12">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="4">
@@ -1533,10 +1518,10 @@
       </c>
     </row>
     <row r="9" s="4" customFormat="1" spans="2:12">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4">
@@ -1564,10 +1549,10 @@
       </c>
     </row>
     <row r="10" s="4" customFormat="1" spans="2:12">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="4">
@@ -1595,10 +1580,10 @@
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="2:12">
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>43166</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="5">
@@ -1626,10 +1611,10 @@
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="2:12">
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>43227</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="5">
@@ -1657,10 +1642,10 @@
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="2:12">
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>43258</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="5">
@@ -1688,10 +1673,10 @@
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="2:12">
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>43380</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="5">
@@ -1723,10 +1708,10 @@
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="2:12">
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>43441</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="5">
@@ -1758,10 +1743,10 @@
       </c>
     </row>
     <row r="16" s="6" customFormat="1" spans="2:12">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="6">
@@ -1793,10 +1778,10 @@
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="2:12">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="5">
@@ -1828,10 +1813,10 @@
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="2:12">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="5">
@@ -1863,10 +1848,10 @@
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="2:12">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="5">
@@ -1898,10 +1883,10 @@
       </c>
     </row>
     <row r="20" s="7" customFormat="1" spans="2:12">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="7">
@@ -1921,15 +1906,15 @@
         <v>0.15</v>
       </c>
       <c r="J20" s="7">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="2"/>
-        <v>14.76</v>
+        <v>14.77</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="3"/>
-        <v>14.61</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="21" spans="6:12">
@@ -3142,11 +3127,11 @@
         <v>0</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" ref="K107:K138" si="11">G107-H107-J107</f>
+        <f t="shared" ref="K107:K150" si="11">G107-H107-J107</f>
         <v>0</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" ref="L107:L138" si="12">G107-(H107+I107+J107)</f>
+        <f t="shared" ref="L107:L150" si="12">G107-(H107+I107+J107)</f>
         <v>0</v>
       </c>
     </row>
@@ -3194,7 +3179,7 @@
     </row>
     <row r="111" spans="6:12">
       <c r="F111" s="1">
-        <f t="shared" ref="F111:F142" si="13">E111/$M$2</f>
+        <f t="shared" ref="F111:F150" si="13">E111/$M$2</f>
         <v>0</v>
       </c>
       <c r="K111" s="1">
@@ -3590,11 +3575,11 @@
         <v>0</v>
       </c>
       <c r="K139" s="1">
-        <f>G139-H139-J139</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L139" s="1">
-        <f>G139-(H139+I139+J139)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3604,11 +3589,11 @@
         <v>0</v>
       </c>
       <c r="K140" s="1">
-        <f>G140-H140-J140</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L140" s="1">
-        <f>G140-(H140+I140+J140)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3618,11 +3603,11 @@
         <v>0</v>
       </c>
       <c r="K141" s="1">
-        <f>G141-H141-J141</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L141" s="1">
-        <f>G141-(H141+I141+J141)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3632,123 +3617,123 @@
         <v>0</v>
       </c>
       <c r="K142" s="1">
-        <f>G142-H142-J142</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L142" s="1">
-        <f>G142-(H142+I142+J142)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="6:12">
       <c r="F143" s="1">
-        <f>E143/$M$2</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K143" s="1">
-        <f>G143-H143-J143</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <f>G143-(H143+I143+J143)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="6:12">
       <c r="F144" s="1">
-        <f>E144/$M$2</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K144" s="1">
-        <f>G144-H144-J144</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L144" s="1">
-        <f>G144-(H144+I144+J144)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="6:12">
       <c r="F145" s="1">
-        <f>E145/$M$2</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K145" s="1">
-        <f>G145-H145-J145</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L145" s="1">
-        <f>G145-(H145+I145+J145)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="6:12">
       <c r="F146" s="1">
-        <f>E146/$M$2</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K146" s="1">
-        <f>G146-H146-J146</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L146" s="1">
-        <f>G146-(H146+I146+J146)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="6:12">
       <c r="F147" s="1">
-        <f>E147/$M$2</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K147" s="1">
-        <f>G147-H147-J147</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L147" s="1">
-        <f>G147-(H147+I147+J147)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="6:12">
       <c r="F148" s="1">
-        <f>E148/$M$2</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K148" s="1">
-        <f>G148-H148-J148</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L148" s="1">
-        <f>G148-(H148+I148+J148)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="6:12">
       <c r="F149" s="1">
-        <f>E149/$M$2</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K149" s="1">
-        <f>G149-H149-J149</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L149" s="1">
-        <f>G149-(H149+I149+J149)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="6:12">
       <c r="F150" s="1">
-        <f>E150/$M$2</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K150" s="1">
-        <f>G150-H150-J150</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L150" s="1">
-        <f>G150-(H150+I150+J150)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3766,7 +3751,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -3895,7 +3880,7 @@
       </c>
       <c r="F5" s="1">
         <f>SUM(OperacoesDayTrade!L11:L15)+SUM(OperacoesDayTrade!L17:L20)</f>
-        <v>78.96</v>
+        <v>78.97</v>
       </c>
       <c r="G5" s="1">
         <f>SUM(OperacoesDayTrade!I11:I15)+SUM(OperacoesDayTrade!I17:I20)</f>
@@ -3916,7 +3901,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -3968,7 +3953,7 @@
       </c>
       <c r="D3">
         <f>RentabilidadeRendaVariavel!F4+RentabilidadeRendaVariavel!F5</f>
-        <v>-11.82</v>
+        <v>-11.81</v>
       </c>
     </row>
   </sheetData>
